--- a/接口信息表.xlsx
+++ b/接口信息表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>接口名称</t>
   </si>
@@ -218,24 +218,31 @@
     "code": 200,
     "data": [
         {
-            "id": 1,
-            "title": "数学实践",
-            "author": "某某",
-            "publication_date": "2025-06-25",
-            "doi": "1",
+            "id": 4,
+            "title": "测试文献1",
+            "author": "张三",
+            "publication_date": "2025-06-26",
+            "doi": "a1",
             "url": "http://www.baidu.com",
             "reference_count": 1,
-            "reference_doi": ['doi1']
+            "reference_doi": [
+                "10.1016/j.cjygl.v4i6.4264",
+                "10.1016/j.cjygl.v4i6.4265"
+            ],
+            "is_referenced_by_count": 3,
+            "score": 39.1
         },
         {
-            "id": 2,
-            "title": "计算科学",
-            "author": "小明",
-            "publication_date": "2025-06-25",
-            "doi": "string",
-            "url": "string",
+            "id": 5,
+            "title": "测试文献2",
+            "author": "李四",
+            "publication_date": "2025-06-27",
+            "doi": "b1",
+            "url": "http://www.baidu.com",
             "reference_count": 0,
-            "reference_doi": []
+            "reference_doi": [],
+            "is_referenced_by_count": 2,
+            "score": 34.5
         }
     ]
 }</t>
@@ -271,29 +278,34 @@
     <t>文献记录添加</t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "title": "string",
   "author": "string",
-  "publication_date": "2025-06-25",
+  "publication_date": "2025-07-25",
   "doi": "string",
   "url": "string",
   "reference_count": 0,
-  "reference_doi": []
-}</t>
+  "reference_doi": [],
+  "is_referenced_by_count": 5,
+  "score":60.1
+}
+</t>
   </si>
   <si>
     <t>{
     "status": "success",
     "code": 200,
     "data": {
-        "publication_date": "2025-06-25",
+        "publication_date": "2025-07-25",
         "author": "string",
-        "id": 3,
         "url": "string",
+        "score": 60.1,
+        "id": 7,
+        "title": "string",
+        "reference_count": 0,
         "reference_doi": [],
-        "doi": "string",
-        "reference_count": 0,
-        "title": "string"
+        "is_referenced_by_count": 5,
+        "doi": "string"
     }
 }</t>
   </si>
@@ -314,31 +326,18 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>{
-            "title": "数学实践",
-            "author": "某某某",
-            "publication_date": "2025-06-25",
-            "doi": "1",
-            "url": "http://www.baidu.com",
-            "reference_count": 11,
-            "reference_doi": []
-        }</t>
-  </si>
-  <si>
-    <t>{
-    "status": "success",
-    "code": 200,
-    "data": {
-        "url": "http://www.baidu.com",
-        "reference_count": 11,
-        "title": "数学实践",
-        "author": "某某某",
-        "reference_doi": [],
-        "publication_date": "2025-06-25",
-        "id": 1,
-        "doi": "1"
-    }
-}</t>
+    <t xml:space="preserve">{
+  "title": "change",
+  "author": "change",
+  "publication_date": "2025-08-25",
+  "doi": "string",
+  "url": "change",
+  "reference_count": 100,
+  "reference_doi": ["10.1016/j.cjygl.v4i6.4264"],
+  "is_referenced_by_count": 100,
+  "score":10.0
+}
+</t>
   </si>
   <si>
     <t>先验证JWT令牌，用户身份验证成功后，依据doi找寻目标文献记录，为用户修改文献记录。</t>
@@ -370,9 +369,11 @@
     <t>{
     "status": "success",
     "code": 200,
-    "data": {
-        "delete_count": 1
-    }
+    "data": "文献记录已完全删除！"
+}或{
+    "status": "success",
+    "code": 200,
+    "data": "已从您的文献库中移除该文献！"
 }</t>
   </si>
   <si>
@@ -383,6 +384,107 @@
     "status": "error",
     "code": 422,
     "data": "参数校验失败: doi_in - Field required"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 404,
+    "data": "您没有关联这篇文献！"
+}</t>
+  </si>
+  <si>
+    <t>文献搜索Crossref API</t>
+  </si>
+  <si>
+    <t>/search/crossref</t>
+  </si>
+  <si>
+    <t>{
+  "query": "多元回归模型",
+  "rows": 3,
+  "offset": 0,
+  "sort":"score",
+  "filter":"until-pub-date:2020-01-01,from-pub-date:2010-01-01"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 200,
+    "data": [
+        {
+            "publication_date": "2019-01-01",
+            "author": "刘璇",
+            "url": "https://doi.org/10.12677/sa.2019.83056",
+            "reference_doi": [
+                "10.1007/s12325-008-0076-1",
+                "10.1056/NEJMoa012512"
+            ],
+            "doi": "10.12677/sa.2019.83056",
+            "reference_count": 10,
+            "title": "Evaluation Model of Diabetes Therapeutic Effect Based on Multiple Linear Regression",
+            "is_referenced_by_count": 0,
+            "score": 47.852325
+        },
+        {
+            "publication_date": "2019-01-01",
+            "author": "孔庆海",
+            "url": "https://doi.org/10.12677/aam.2019.87143",
+            "reference_doi": [
+                "10.1007/978-94-009-5912-5"
+            ],
+            "doi": "10.12677/aam.2019.87143",
+            "reference_count": 5,
+            "title": "D-Optimal Design for Duality Quadratic Polynomial Regression Models in Circle Region",
+            "is_referenced_by_count": 0,
+            "score": 46.320873
+        },
+        {
+            "publication_date": "2020-01-01",
+            "author": "王汉哲",
+            "url": "https://doi.org/10.12677/aam.2020.912249",
+            "reference_doi": [
+                "10.1080/07374836.2004.10523876",
+                "10.5307/JBE.2004.29.1.079"
+            ],
+            "doi": "10.12677/aam.2020.912249",
+            "reference_count": 6,
+            "title": "Study on the Influence Factors of Social Security in Shanxi Province Based on the Multiple Rgression Model",
+            "is_referenced_by_count": 0,
+            "score": 43.428505
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先验证JWT令牌，用户身份验证成功后，通过请求体参数搜索文献，参数中query必选。参数介绍：query: 搜索关键词（支持DOI、作者、标题等，如 'doi:10.1234/abc' 或 'author:"John Smith"'）
+        rows: 每页返回数量（1-1000，默认10）
+        offset: 分页偏移量（从0开始，默认0）
+        sort: 排序方式（默认按相关性）
+        filters: 过滤条件字典（键为Crossref支持的字段，值为筛选条件）
+              示例："filter":"until-pub-date:2020-01-01,from-pub-date:2010-01-01"
+</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 422,
+    "data": "参数校验失败: query - Field required"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 500,
+    "data": "Crossref API请求出错: 400 Client Error: Bad Request for url: https://api.crossref.org/works?query=%E5%A4%9A%E5%85%83%E5%9B%9E%E5%BD%92%E6%A8%A1%E5%9E%8B&amp;rows=3&amp;offset=0&amp;filter=category%3Abiology&amp;sort=score"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 422,
+    "data": "参数校验失败: sort - Input should be 'relevance', 'score', 'updated' or 'is-referenced-by-count'"
 }</t>
   </si>
 </sst>
@@ -396,14 +498,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,148 +956,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,13 +1430,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="17.1666666666667" customWidth="1"/>
@@ -1492,7 +1587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="364" spans="1:12">
+    <row r="5" ht="409.5" spans="1:12">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1526,11 +1621,11 @@
       <c r="K5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="196" spans="1:12">
+    <row r="6" ht="224" spans="1:12">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1564,11 +1659,11 @@
       <c r="K6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="196" spans="1:13">
+    <row r="7" ht="224" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1584,43 +1679,43 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="126" spans="1:16">
+      <c r="A8" t="s">
         <v>56</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" ht="98" spans="1:14">
-      <c r="A8" t="s">
-        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -1628,29 +1723,74 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="M8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" ht="409.5" spans="1:13">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/接口信息表.xlsx
+++ b/接口信息表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>接口名称</t>
   </si>
@@ -317,6 +317,13 @@
     "status": "error",
     "code": 409,
     "data": "文献记录已存在！"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 203,
+    "data": "由于文献记录存在，故将已存在文献记录关联此用户！"
 }</t>
   </si>
   <si>
@@ -1121,9 +1128,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1449,8 +1459,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1642,7 +1652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="224" spans="1:12">
+    <row r="6" ht="224" spans="1:14">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1679,16 +1689,20 @@
       <c r="L6" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" ht="252" spans="1:13">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -1697,25 +1711,25 @@
         <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>44</v>
@@ -1723,16 +1737,16 @@
     </row>
     <row r="8" ht="126" spans="1:16">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -1741,40 +1755,40 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" ht="409.5" spans="1:13">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1786,25 +1800,25 @@
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>44</v>

--- a/接口信息表.xlsx
+++ b/接口信息表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>接口名称</t>
   </si>
@@ -338,6 +338,26 @@
   "score":10.0
 }
 </t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 200,
+    "data": {
+        "id": 7,
+        "is_referenced_by_count": 100,
+        "reference_doi": [
+            "10.1016/j.cjygl.v4i6.4264"
+        ],
+        "url": "change",
+        "publication_date": "2025-08-25",
+        "score": 10.0,
+        "author": "change",
+        "reference_count": 100,
+        "title": "change",
+        "doi": "string"
+    }
+}</t>
   </si>
   <si>
     <t>先验证JWT令牌，用户身份验证成功后，依据doi找寻目标文献记录，为用户修改文献记录。</t>
@@ -1101,12 +1121,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1432,8 +1449,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1663,7 +1680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="224" spans="1:13">
+    <row r="7" ht="252" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1683,22 +1700,22 @@
         <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>44</v>
@@ -1706,16 +1723,16 @@
     </row>
     <row r="8" ht="126" spans="1:16">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -1724,40 +1741,40 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" ht="409.5" spans="1:13">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1768,28 +1785,28 @@
       <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>44</v>
       </c>
     </row>

--- a/接口信息表.xlsx
+++ b/接口信息表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>接口名称</t>
   </si>
@@ -512,6 +512,210 @@
     "status": "error",
     "code": 422,
     "data": "参数校验失败: sort - Input should be 'relevance', 'score', 'updated' or 'is-referenced-by-count'"
+}</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>/files/</t>
+  </si>
+  <si>
+    <t>请求体需要包含一个文件列表(file_list)。</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 200,
+    "data": {
+        "success": [
+            {
+                "filename": "我是一个测试文件！.md",
+                "filetype": "text/markdown",
+                "size": 27
+            },
+            {
+                "filename": "模块接口.docx",
+                "filetype": "application/vnd.openxmlformats-officedocument.wordprocessingml.document",
+                "size": 11802
+            }
+        ],
+        "error": [
+            {
+                "filename": "test_file.txt",
+                "filetype": "text/plain",
+                "size": 42,
+                "reason": "同名文件已存在！"
+            }
+        ],
+        "total": 3
+    }
+}</t>
+  </si>
+  <si>
+    <t>先验证JWT令牌，用户身份验证成功后，上传文件，若与该文件的文件名已存在，则跳过该文件。所有文件上传结束后，返回成功文件的信息和失败文件的信息。</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 422,
+    "data": "参数校验失败: file_list - Field required"
+}</t>
+  </si>
+  <si>
+    <t>上传文件修改</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 200,
+    "data": {
+        "success": [
+            {
+                "filename": "我是一个测试文件！.md",
+                "filetype": "text/markdown",
+                "size": 27
+            }
+        ],
+        "error": [],
+        "total": 1
+    }
+}</t>
+  </si>
+  <si>
+    <t>先验证JWT令牌，用户身份验证成功后，若上传文件不存在，则报错，若上传文件存在，则修改上传文件，所有文件修改结束后，返回成功文件的信息和失败文件的信息。</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 200,
+    "data": {
+        "success": [],
+        "error": [
+            {
+                "filename": "学习打卡.xlsx",
+                "filetype": "application/vnd.openxmlformats-officedocument.spreadsheetml.sheet",
+                "size": 10437,
+                "reason": "文件不存在！"
+            }
+        ],
+        "total": 1
+    }</t>
+  </si>
+  <si>
+    <t>上传文件删除</t>
+  </si>
+  <si>
+    <t>{
+    "filename":["模块接口.docx"]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 200,
+    "data": {
+        "success": [
+            {
+                "filename": "模块接口.docx"
+            }
+        ],
+        "error": [],
+        "total": 1
+    }</t>
+  </si>
+  <si>
+    <t>先验证JWT令牌，用户身份验证成功后，若文件名不存在，则报错，若文件名存在，则删除对应文件，删除结束后，返回成功文件的信息和失败文件的信息。</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 422,
+    "data": "参数校验失败: body - Input should be a valid list"
+}</t>
+  </si>
+  <si>
+    <t>用户上传文件查询</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 200,
+    "data": [
+        {
+            "id": 1,
+            "file_name": "test_file.txt",
+            "file_type": "text/plain",
+            "file_size": 30,
+            "file_path": "D:\\Desktop\\启真问智比赛\\LitMind\\upload_files\\1\\test_file.txt",
+            "upload_time": "2025-06-26T17:29:27.217870+00:00"
+        },
+        {
+            "id": 2,
+            "file_name": "我是一个测试文件！.md",
+            "file_type": "text/markdown",
+            "file_size": 27,
+            "file_path": "D:\\Desktop\\启真问智比赛\\LitMind\\upload_files\\1\\我是一个测试文件！.md",
+            "upload_time": "2025-06-26T17:29:27.217870+00:00"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>先验证JWT令牌，用户身份验证成功后，返回该用户的上传文件记录、</t>
+  </si>
+  <si>
+    <t>上传文件下载</t>
+  </si>
+  <si>
+    <t>/files/download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "filename":["test_file.txt"]
+}
+</t>
+  </si>
+  <si>
+    <t>响应体：文件的二进制流内容
+（例如返回一段文字：这是一段测试文字。）</t>
+  </si>
+  <si>
+    <t>先验证JWT令牌，用户身份验证成功后，根据上传的文件名，下载对应文件</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 404,
+    "data": "文件a.txt不存在！"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 403,
+    "data": "无权访问此文件！"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 405,
+    "data": "暂不支持多个文件同时下载！"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 404,
+    "data": "用户目录不存在！"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 422,
+    "data": "参数校验失败: filename - Input should be a valid list"
 }</t>
   </si>
 </sst>
@@ -1457,10 +1661,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1689,10 +1893,10 @@
       <c r="L6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" ht="252" spans="1:13">
       <c r="A7" t="s">
@@ -1822,6 +2026,179 @@
       </c>
       <c r="M9" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="10" ht="392" spans="1:11">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" ht="294" spans="1:11">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" ht="168" spans="1:10">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" ht="336" spans="1:9">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="112" spans="1:14">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/接口信息表.xlsx
+++ b/接口信息表.xlsx
@@ -489,7 +489,7 @@
         rows: 每页返回数量（1-1000，默认10）
         offset: 分页偏移量（从0开始，默认0）
         sort: 排序方式（默认按相关性）
-        filters: 过滤条件字典（键为Crossref支持的字段，值为筛选条件）
+        filters: 过滤条件字符串
               示例："filter":"until-pub-date:2020-01-01,from-pub-date:2010-01-01"
 </t>
   </si>
@@ -1332,12 +1332,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1663,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2053,13 +2050,13 @@
       <c r="H10" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" ht="294" spans="1:11">
       <c r="A11" t="s">
@@ -2080,19 +2077,19 @@
       <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2112,19 +2109,19 @@
       <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H12" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2147,13 +2144,13 @@
       <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H13" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2173,31 +2170,31 @@
       <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>94</v>
       </c>
       <c r="H14" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="1" t="s">
         <v>100</v>
       </c>
     </row>

--- a/接口信息表.xlsx
+++ b/接口信息表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>接口名称</t>
   </si>
@@ -716,6 +716,49 @@
     "status": "error",
     "code": 422,
     "data": "参数校验失败: filename - Input should be a valid list"
+}</t>
+  </si>
+  <si>
+    <t>文本翻译（general版）</t>
+  </si>
+  <si>
+    <t>/translations/text</t>
+  </si>
+  <si>
+    <t>{
+  "content": "我在测试翻译功能",
+  "source_language": "Chinese",
+  "translated_language": "English",
+  "style": "general"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 200,
+    "data": {
+        "content": "I am testing the translation function.",
+        "source_language": "Chinese",
+        "translated_language": "English",
+        "style": "general"
+    }
+}</t>
+  </si>
+  <si>
+    <t>返回翻译结果（目前仅支持中文和英文，仅支持general风格）</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 422,
+    "data": "参数校验失败: source_language - Value error, Language must be one of {'English', 'Chinese'}"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 422,
+    "data": "参数校验失败: style - Value error, Style must be one of {'academic', 'general'}"
 }</t>
   </si>
 </sst>
@@ -1332,9 +1375,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1658,10 +1704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2198,6 +2244,38 @@
         <v>100</v>
       </c>
     </row>
+    <row r="15" ht="140" spans="1:10">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/接口信息表.xlsx
+++ b/接口信息表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
   <si>
     <t>接口名称</t>
   </si>
@@ -512,6 +512,57 @@
     "status": "error",
     "code": 422,
     "data": "参数校验失败: sort - Input should be 'relevance', 'score', 'updated' or 'is-referenced-by-count'"
+}</t>
+  </si>
+  <si>
+    <t>由doi搜索文献Crossref API</t>
+  </si>
+  <si>
+    <t>{
+  "doi":"10.1210/jcem.80.3.7883856"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "code": 200,
+    "data": [
+        {
+            "publication_date": "1995-01-01",
+            "author": "DeaconC F, JohnsenA H, HolstJ J",
+            "url": "https://doi.org/10.1210/jcem.80.3.7883856",
+            "reference_doi": [],
+            "doi": "10.1210/jcem.80.3.7883856",
+            "reference_count": 0,
+            "title": "Degradation of glucagon-like peptide-1 by human plasma in vitro yields an N-terminally truncated peptide that is a major endogenous metabolite in vivo.",
+            "is_referenced_by_count": 71,
+            "score": 0
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>先验证JWT令牌，用户身份验证成功后，验证成功后，通过doi查询对应文献。</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 500,
+    "data": "Crossref API请求出错: 400 Client Error: Bad Request for url: https://api.crossref.org/works?query=&amp;rows=1&amp;offset=0&amp;filter=doi%3A10.1210m.80.3.7883856&amp;sort=relevance"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 422,
+    "data": "参数校验失败: doi - Value error, Invalid DOI format. Expected format: 10.XXXX/XXXXX"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "error",
+    "code": 404,
+    "data": "该doi不存在！"
 }</t>
   </si>
   <si>
@@ -1375,12 +1426,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1704,10 +1752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2071,15 +2119,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="392" spans="1:11">
+    <row r="10" ht="266" spans="1:12">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2087,29 +2135,34 @@
       <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="11" ht="294" spans="1:11">
+    <row r="11" ht="392" spans="1:11">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2121,33 +2174,31 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
-    <row r="12" ht="168" spans="1:10">
+    <row r="12" ht="294" spans="1:11">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2155,31 +2206,34 @@
       <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>84</v>
+      <c r="F12" t="s">
+        <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="13" ht="336" spans="1:9">
+    <row r="13" ht="168" spans="1:10">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -2187,28 +2241,31 @@
       <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
+      <c r="F13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="14" ht="112" spans="1:14">
+    <row r="14" ht="336" spans="1:9">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -2216,40 +2273,25 @@
       <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>93</v>
+      <c r="F14" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="1" t="s">
+    </row>
+    <row r="15" ht="112" spans="1:14">
+      <c r="A15" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="B15" t="s">
         <v>99</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" ht="140" spans="1:10">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -2258,22 +2300,66 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" ht="140" spans="1:10">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>107</v>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/接口信息表.xlsx
+++ b/接口信息表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
   <si>
     <t>接口名称</t>
   </si>
@@ -485,7 +485,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">先验证JWT令牌，用户身份验证成功后，通过请求体参数搜索文献，参数中query必选。参数介绍：query: 搜索关键词（支持DOI、作者、标题等，如 'doi:10.1234/abc' 或 'author:"John Smith"'）
+    <t xml:space="preserve">通过请求体参数搜索文献，参数中query必选。参数介绍：query: 搜索关键词（支持DOI、作者、标题等，如 'doi:10.1234/abc' 或 'author:"John Smith"'）
         rows: 每页返回数量（1-1000，默认10）
         offset: 分页偏移量（从0开始，默认0）
         sort: 排序方式（默认按相关性）
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>由doi搜索文献Crossref API</t>
+  </si>
+  <si>
+    <t>/search/doi</t>
   </si>
   <si>
     <t>{
@@ -542,7 +545,7 @@
 }</t>
   </si>
   <si>
-    <t>先验证JWT令牌，用户身份验证成功后，验证成功后，通过doi查询对应文献。</t>
+    <t>通过doi查询对应文献。</t>
   </si>
   <si>
     <t>{
@@ -1754,8 +1757,8 @@
   <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2091,9 +2094,7 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
+      <c r="E9"/>
       <c r="F9" s="1" t="s">
         <v>67</v>
       </c>
@@ -2103,9 +2104,7 @@
       <c r="H9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>70</v>
       </c>
@@ -2115,54 +2114,48 @@
       <c r="L9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" ht="266" spans="1:12">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
+      <c r="E10"/>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="392" spans="1:11">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2174,28 +2167,28 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" ht="294" spans="1:11">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -2207,30 +2200,30 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="168" spans="1:10">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
@@ -2242,27 +2235,27 @@
         <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" ht="336" spans="1:9">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2277,10 +2270,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>41</v>
@@ -2288,10 +2281,10 @@
     </row>
     <row r="15" ht="112" spans="1:14">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -2303,39 +2296,39 @@
         <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="140" spans="1:10">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2347,19 +2340,19 @@
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/接口信息表.xlsx
+++ b/接口信息表.xlsx
@@ -1757,8 +1757,8 @@
   <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
